--- a/tests/results/test_results_final.xlsx
+++ b/tests/results/test_results_final.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17474" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17540" uniqueCount="941">
   <si>
     <t xml:space="preserve">Explanations for the scoring</t>
   </si>
@@ -64,7 +64,6 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The following ones have scoring from 1-5. But not given directly. Instead the LLM evaluates probabilities for each of the values from 1 to 5 and the combines the values and probabilities for the final scoring. The formula is as follows: </t>
     </r>
@@ -74,7 +73,6 @@
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Σ probability of score * score.</t>
     </r>
@@ -2831,7 +2829,46 @@
     <t xml:space="preserve">Hyperlokaatio</t>
   </si>
   <si>
-    <t xml:space="preserve">Hallucinations</t>
+    <t xml:space="preserve">Hallucinations total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallucination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">henkilöt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paikat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organisaatiot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hyperlokaatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muotoilu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virhe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallusinaatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">average</t>
   </si>
 </sst>
 </file>
@@ -2847,7 +2884,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2869,7 +2905,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
@@ -3014,7 +3049,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3137,10 +3172,10 @@
                   <c:v>0.964348178137652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.862159222683131</c:v>
+                  <c:v>0.856974037</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.700210562857622</c:v>
+                  <c:v>0.697988341</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.911111111111111</c:v>
@@ -3235,10 +3270,10 @@
                   <c:v>0.781438722055652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.752119830900319</c:v>
+                  <c:v>0.746839001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.400763865763866</c:v>
+                  <c:v>0.398627114</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.848888888888889</c:v>
@@ -3333,10 +3368,10 @@
                   <c:v>0.989808515998992</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.875163341775184</c:v>
+                  <c:v>0.869978157</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.746977016172419</c:v>
+                  <c:v>0.74031035</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.877777777777778</c:v>
@@ -3431,10 +3466,10 @@
                   <c:v>0.917491645781119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.913398214845583</c:v>
+                  <c:v>0.914904307</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.640574888074888</c:v>
+                  <c:v>0.6521744</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.895555555555555</c:v>
@@ -3529,10 +3564,10 @@
                   <c:v>0.965364071554548</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.919007876654936</c:v>
+                  <c:v>0.91347261</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.719560774737245</c:v>
+                  <c:v>0.718290933</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.851111111111111</c:v>
@@ -3627,10 +3662,10 @@
                   <c:v>0.972707231040564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.838862081470894</c:v>
+                  <c:v>0.840661023</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.649013315022443</c:v>
+                  <c:v>0.645889777</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.868888888888889</c:v>
@@ -3725,10 +3760,10 @@
                   <c:v>0.888650793650794</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.890710306277257</c:v>
+                  <c:v>0.895943693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.785693007339617</c:v>
+                  <c:v>0.795534277</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.833333333333333</c:v>
@@ -3746,11 +3781,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="37967115"/>
-        <c:axId val="42748966"/>
+        <c:axId val="30186298"/>
+        <c:axId val="10896078"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37967115"/>
+        <c:axId val="30186298"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3778,7 +3813,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="42748966"/>
+        <c:crossAx val="10896078"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3786,11 +3821,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42748966"/>
+        <c:axId val="10896078"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.4"/>
+          <c:min val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3825,7 +3860,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37967115"/>
+        <c:crossAx val="30186298"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3844,10 +3879,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.688982102908277"/>
-          <c:y val="0.295433189250141"/>
-          <c:w val="0.26420581655481"/>
-          <c:h val="0.414019921067469"/>
+          <c:x val="0.688967852978735"/>
+          <c:y val="0.295405791919914"/>
+          <c:w val="0.264186563020544"/>
+          <c:h val="0.414052024671494"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3883,775 +3918,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Hallusinaatiot</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>abstract!$C$40:$C$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4o</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>abstract!$D$39:$G$39</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Henkilöt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paikat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organisaatiot</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hyperlokaatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>abstract!$D$40:$G$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>abstract!$C$41:$C$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4o-mini</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>abstract!$D$39:$G$39</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Henkilöt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paikat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organisaatiot</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hyperlokaatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>abstract!$D$41:$G$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>abstract!$C$42:$C$42</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>gpt-4.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>abstract!$D$39:$G$39</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Henkilöt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paikat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organisaatiot</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hyperlokaatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>abstract!$D$42:$G$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>abstract!$C$43:$C$43</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>o4-mini</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>abstract!$D$39:$G$39</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Henkilöt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paikat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organisaatiot</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hyperlokaatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>abstract!$D$43:$G$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>abstract!$C$44:$C$44</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>claude-3-7-sonnet-20250219</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="7e0021"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>abstract!$D$39:$G$39</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Henkilöt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paikat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organisaatiot</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hyperlokaatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>abstract!$D$44:$G$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>abstract!$C$45:$C$45</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>gemini-2.0-flash</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="83caff"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>abstract!$D$39:$G$39</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Henkilöt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paikat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organisaatiot</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hyperlokaatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>abstract!$D$45:$G$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>abstract!$C$46:$C$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>o3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="314004"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>abstract!$D$39:$G$39</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Henkilöt</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Paikat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Organisaatiot</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Hyperlokaatio</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>abstract!$D$46:$G$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:overlap val="0"/>
-        <c:axId val="4567654"/>
-        <c:axId val="88412573"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="4567654"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="88412573"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="88412573"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="4567654"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
-              <a:latin typeface="Arial"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -5546,11 +4813,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="67026316"/>
-        <c:axId val="51356359"/>
+        <c:axId val="98701114"/>
+        <c:axId val="55994851"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67026316"/>
+        <c:axId val="98701114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5587,15 +4854,15 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51356359"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="55994851"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51356359"/>
+        <c:axId val="55994851"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -5634,8 +4901,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67026316"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="98701114"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -5682,6 +4949,1243 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Hallusinaatiot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$C$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$D$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Henkilöt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paikat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organisaatiot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hyperlokaatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$D$67:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$D$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Henkilöt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paikat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organisaatiot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hyperlokaatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$D$68:$G$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$C$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$D$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Henkilöt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paikat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organisaatiot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hyperlokaatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$D$69:$G$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$C$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>o4-mini</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$D$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Henkilöt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paikat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organisaatiot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hyperlokaatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$D$70:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$C$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>claude-3-7-sonnet-20250219</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7e0021"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$D$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Henkilöt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paikat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organisaatiot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hyperlokaatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$D$71:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$C$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="83caff"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$D$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Henkilöt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paikat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organisaatiot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hyperlokaatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$D$72:$G$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$C$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>o3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="314004"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$D$66:$G$66</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Henkilöt</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paikat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Organisaatiot</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Hyperlokaatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$D$73:$G$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="12132869"/>
+        <c:axId val="27655367"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="12132869"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="27655367"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27655367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12132869"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Hallusinaatio tyypit</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$D$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Muotoilu</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$C$77:$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>o4-mini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>claude-3-7-sonnet-20250219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>o3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$D$77:$D$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30.6122448979592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.5833333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53.6231884057971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.5283018867925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.8918918918919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$E$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Virhe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$C$77:$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>o4-mini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>claude-3-7-sonnet-20250219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>o3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$E$77:$E$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>61.2244897959184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.4782608695652</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.5849056603774</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54.0540540540541</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59.375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>abstract!$F$76</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hallusinaatio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>abstract!$C$77:$C$83</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>gpt-4o</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gpt-4o-mini</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>gpt-4.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>o4-mini</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>claude-3-7-sonnet-20250219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>gemini-2.0-flash</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>o3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>abstract!$F$77:$F$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.16326530612245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.89855072463768</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.88679245283019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.05405405405405</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="56685233"/>
+        <c:axId val="78045863"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56685233"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78045863"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="78045863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="56685233"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5689,13 +6193,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>492120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>117000</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:colOff>116640</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5703,8 +6207,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5475600" y="2420640"/>
-        <a:ext cx="6477120" cy="4027680"/>
+        <a:off x="5480640" y="2422080"/>
+        <a:ext cx="6483600" cy="4027320"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5716,16 +6220,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>518400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>50400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>186120</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>186120</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5733,8 +6237,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5501880" y="6626160"/>
-        <a:ext cx="6407280" cy="3595320"/>
+        <a:off x="21875040" y="905040"/>
+        <a:ext cx="7618680" cy="5054400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5746,16 +6250,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247680</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>449280</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -5763,12 +6267,42 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="13249440" y="4042440"/>
-        <a:ext cx="7611480" cy="5054760"/>
+        <a:off x="5236200" y="10846440"/>
+        <a:ext cx="6437160" cy="3670560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>77760</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>19800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>513720</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>91800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="5066280" y="14916600"/>
+        <a:ext cx="6671520" cy="3752640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5788,7 +6322,10 @@
       <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="11.65"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -5800,12 +6337,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5949,15 +6486,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AF54" activeCellId="0" sqref="AF54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="1" style="0" width="8.84"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -6097,10 +6637,10 @@
         <v>0.85880174291939</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.885593669615409</v>
+        <v>0.874760336</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.862159222683131</v>
+        <v>0.856974037</v>
       </c>
       <c r="J5" s="2" t="n">
         <v>28</v>
@@ -6109,10 +6649,10 @@
         <v>0.807089947089947</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.64505291005291</v>
+        <v>0.640886243</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0.700210562857622</v>
+        <v>0.697988341</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>6</v>
@@ -6183,10 +6723,10 @@
         <v>0.886322751322751</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.67568244557375</v>
+        <v>0.668301496</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.752119830900319</v>
+        <v>0.746839001</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>14</v>
@@ -6195,10 +6735,10 @@
         <v>0.533333333333333</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>0.343518518518518</v>
+        <v>0.340542328</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>0.400763865763866</v>
+        <v>0.398627114</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>3</v>
@@ -6266,13 +6806,13 @@
         <v>6</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.864619903516962</v>
+        <v>0.864819904</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.900537308906874</v>
+        <v>0.889703976</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.875163341775184</v>
+        <v>0.869978157</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>17</v>
@@ -6281,10 +6821,10 @@
         <v>0.843333333333333</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>0.699656084656085</v>
+        <v>0.689933862</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>0.746977016172419</v>
+        <v>0.74031035</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>14</v>
@@ -6352,28 +6892,28 @@
         <v>29</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.937626050420168</v>
+        <v>0.944292717</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.898489710772319</v>
+        <v>0.894918282</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.913398214845583</v>
+        <v>0.914904307</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.737563732563733</v>
+        <v>0.754230399</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.595291005291005</v>
+        <v>0.603227513</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.640574888074888</v>
+        <v>0.6521744</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="2" t="n">
         <v>0.905555555555556</v>
@@ -6441,25 +6981,25 @@
         <v>0.96625</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.88609072087333</v>
+        <v>0.876447869</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.919007876654936</v>
+        <v>0.91347261</v>
       </c>
       <c r="J9" s="2" t="n">
         <v>6</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.799140211640212</v>
+        <v>0.807473545</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.703386243386243</v>
+        <v>0.703783069</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.719560774737245</v>
+        <v>0.718290933</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="2" t="n">
         <v>0.861111111111111</v>
@@ -6524,25 +7064,25 @@
         <v>5</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>0.852305408995451</v>
+        <v>0.858972076</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.83896856766422</v>
+        <v>0.835397139</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.838862081470894</v>
+        <v>0.840661023</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.753835978835979</v>
+        <v>0.753835979</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.611428571428571</v>
+        <v>0.605079365</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0.649013315022443</v>
+        <v>0.645889777</v>
       </c>
       <c r="O10" s="2" t="n">
         <v>21</v>
@@ -6610,28 +7150,28 @@
         <v>33</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.892209772798008</v>
+        <v>0.903638344</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.900486124181776</v>
+        <v>0.901081362</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.890710306277257</v>
+        <v>0.895943693</v>
       </c>
       <c r="J11" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>0.84470987</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0.77962963</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>0.795534277</v>
+      </c>
+      <c r="O11" s="2" t="n">
         <v>25</v>
-      </c>
-      <c r="L11" s="2" t="n">
-        <v>0.828840187590188</v>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>0.774470899470899</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0.785693007339617</v>
-      </c>
-      <c r="O11" s="2" t="n">
-        <v>27</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>0.833333333333333</v>
@@ -6803,17 +7343,17 @@
         <v>0.964348178137652</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.862159222683131</v>
+        <v>0.856974037</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.700210562857622</v>
+        <v>0.697988341</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>0.911111111111111</v>
       </c>
       <c r="H17" s="2" t="n">
         <f aca="false">(D17+E17+F17+G17)/4</f>
-        <v>0.859457268697379</v>
+        <v>0.857605416812191</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>36</v>
@@ -6861,17 +7401,17 @@
         <v>0.781438722055652</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.752119830900319</v>
+        <v>0.746839001</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.400763865763866</v>
+        <v>0.398627114</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>0.848888888888889</v>
       </c>
       <c r="H18" s="2" t="n">
         <f aca="false">(D18+E18+F18+G18)/4</f>
-        <v>0.695802826902181</v>
+        <v>0.693948431486135</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>37</v>
@@ -6919,17 +7459,17 @@
         <v>0.989808515998992</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.875163341775184</v>
+        <v>0.869978157</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.746977016172419</v>
+        <v>0.74031035</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>0.877777777777778</v>
       </c>
       <c r="H19" s="2" t="n">
         <f aca="false">(D19+E19+F19+G19)/4</f>
-        <v>0.872431662931093</v>
+        <v>0.869468700194193</v>
       </c>
       <c r="V19" s="2" t="s">
         <v>38</v>
@@ -6977,17 +7517,17 @@
         <v>0.917491645781119</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.913398214845583</v>
+        <v>0.914904307</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.640574888074888</v>
+        <v>0.6521744</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>0.895555555555555</v>
       </c>
       <c r="H20" s="2" t="n">
         <f aca="false">(D20+E20+F20+G20)/4</f>
-        <v>0.841755076064286</v>
+        <v>0.845031477084169</v>
       </c>
       <c r="V20" s="2" t="s">
         <v>39</v>
@@ -7035,17 +7575,17 @@
         <v>0.965364071554548</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.919007876654936</v>
+        <v>0.91347261</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.719560774737245</v>
+        <v>0.718290933</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>0.851111111111111</v>
       </c>
       <c r="H21" s="2" t="n">
         <f aca="false">(D21+E21+F21+G21)/4</f>
-        <v>0.86376095851446</v>
+        <v>0.862059681416415</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>40</v>
@@ -7093,17 +7633,17 @@
         <v>0.972707231040564</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.838862081470894</v>
+        <v>0.840661023</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.649013315022443</v>
+        <v>0.645889777</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>0.868888888888889</v>
       </c>
       <c r="H22" s="2" t="n">
         <f aca="false">(D22+E22+F22+G22)/4</f>
-        <v>0.832367879105697</v>
+        <v>0.832036729982363</v>
       </c>
       <c r="V22" s="2" t="s">
         <v>41</v>
@@ -7151,17 +7691,17 @@
         <v>0.888650793650794</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.890710306277257</v>
+        <v>0.895943693</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0.785693007339617</v>
+        <v>0.795534277</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>0.833333333333333</v>
       </c>
       <c r="H23" s="2" t="n">
         <f aca="false">(D23+E23+F23+G23)/4</f>
-        <v>0.84959686015025</v>
+        <v>0.853365524246032</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7173,164 +7713,1580 @@
       <c r="D39" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="P39" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="Q39" s="2"/>
+      <c r="T39" s="2" t="s">
         <v>922</v>
+      </c>
+      <c r="X39" s="0" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <f aca="false">(D40+E40+F40+G40)/4</f>
-        <v>12.25</v>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K41" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E41" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <f aca="false">(D41+E41+F41+G41)/4</f>
+      <c r="L41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="M41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="Q41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" s="2" t="n">
+        <f aca="false">(D41+H41+L41+P41)/4</f>
+        <v>12.25</v>
+      </c>
+      <c r="U41" s="2" t="n">
+        <f aca="false">(E41+I41+M41+Q41)/4</f>
+        <v>3.75</v>
+      </c>
+      <c r="V41" s="2" t="n">
+        <f aca="false">(F41+J41+N41+R41)/4</f>
+        <v>7.5</v>
+      </c>
+      <c r="W41" s="2" t="n">
+        <f aca="false">(G41+K41+O41+S41)/4</f>
+        <v>1</v>
+      </c>
+      <c r="X41" s="0" t="n">
+        <f aca="false">D41+H41+L41+P41</f>
+        <v>49</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <f aca="false">E41+I41+M41+Q41</f>
+        <v>15</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <f aca="false">F41+J41+N41+R41</f>
+        <v>30</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <f aca="false">G41+K41+O41+S41</f>
+        <v>4</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" s="2" t="n">
+        <f aca="false">(D42+H42+L42+P42)/4</f>
+        <v>8</v>
+      </c>
+      <c r="U42" s="2" t="n">
+        <f aca="false">(E42+I42+M42+Q42)/4</f>
+        <v>2.75</v>
+      </c>
+      <c r="V42" s="2" t="n">
+        <f aca="false">(F42+J42+N42+R42)/4</f>
+        <v>4.25</v>
+      </c>
+      <c r="W42" s="2" t="n">
+        <f aca="false">(G42+K42+O42+S42)/4</f>
+        <v>1</v>
+      </c>
+      <c r="X42" s="0" t="n">
+        <f aca="false">D42+H42+L42+P42</f>
+        <v>32</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <f aca="false">E42+I42+M42+Q42</f>
+        <v>11</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <f aca="false">F42+J42+N42+R42</f>
         <v>17</v>
       </c>
-      <c r="F42" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <f aca="false">(D42+E42+F42+G42)/4</f>
-        <v>12</v>
+      <c r="AA42" s="0" t="n">
+        <f aca="false">G42+K42+O42+S42</f>
+        <v>4</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="L43" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="F43" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="G43" s="2" t="n">
+      <c r="M43" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" s="2" t="n">
+        <f aca="false">(D43+H43+L43+P43)/4</f>
+        <v>12</v>
+      </c>
+      <c r="U43" s="2" t="n">
+        <f aca="false">(E43+I43+M43+Q43)/4</f>
+        <v>1.75</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <f aca="false">(F43+J43+N43+R43)/4</f>
+        <v>8.25</v>
+      </c>
+      <c r="W43" s="2" t="n">
+        <f aca="false">(G43+K43+O43+S43)/4</f>
+        <v>2</v>
+      </c>
+      <c r="X43" s="0" t="n">
+        <f aca="false">D43+H43+L43+P43</f>
+        <v>48</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <f aca="false">E43+I43+M43+Q43</f>
+        <v>7</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <f aca="false">F43+J43+N43+R43</f>
+        <v>33</v>
+      </c>
+      <c r="AA43" s="0" t="n">
+        <f aca="false">G43+K43+O43+S43</f>
         <v>8</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <f aca="false">(D43+E43+F43+G43)/4</f>
-        <v>18</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D44" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J44" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E44" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <f aca="false">(D44+E44+F44+G44)/4</f>
-        <v>13.5</v>
+      <c r="K44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <f aca="false">(D44+H44+L44+P44)/4</f>
+        <v>17.25</v>
+      </c>
+      <c r="U44" s="2" t="n">
+        <f aca="false">(E44+I44+M44+Q44)/4</f>
+        <v>9.25</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <f aca="false">(F44+J44+N44+R44)/4</f>
+        <v>7.5</v>
+      </c>
+      <c r="W44" s="2" t="n">
+        <f aca="false">(G44+K44+O44+S44)/4</f>
+        <v>0.5</v>
+      </c>
+      <c r="X44" s="0" t="n">
+        <f aca="false">D44+H44+L44+P44</f>
+        <v>69</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <f aca="false">E44+I44+M44+Q44</f>
+        <v>37</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <f aca="false">F44+J44+N44+R44</f>
+        <v>30</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <f aca="false">G44+K44+O44+S44</f>
+        <v>2</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
-        <f aca="false">(D45+E45+F45+G45)/4</f>
-        <v>19.25</v>
+        <v>6</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="S45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2" t="n">
+        <f aca="false">(D45+H45+L45+P45)/4</f>
+        <v>13.25</v>
+      </c>
+      <c r="U45" s="2" t="n">
+        <f aca="false">(E45+I45+M45+Q45)/4</f>
+        <v>3.25</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <f aca="false">(F45+J45+N45+R45)/4</f>
+        <v>9.75</v>
+      </c>
+      <c r="W45" s="2" t="n">
+        <f aca="false">(G45+K45+O45+S45)/4</f>
+        <v>0.25</v>
+      </c>
+      <c r="X45" s="0" t="n">
+        <f aca="false">D45+H45+L45+P45</f>
+        <v>53</v>
+      </c>
+      <c r="Y45" s="0" t="n">
+        <f aca="false">E45+I45+M45+Q45</f>
+        <v>13</v>
+      </c>
+      <c r="Z45" s="0" t="n">
+        <f aca="false">F45+J45+N45+R45</f>
+        <v>39</v>
+      </c>
+      <c r="AA45" s="0" t="n">
+        <f aca="false">G45+K45+O45+S45</f>
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="S46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" s="2" t="n">
+        <f aca="false">(D46+H46+L46+P46)/4</f>
+        <v>18.5</v>
+      </c>
+      <c r="U46" s="2" t="n">
+        <f aca="false">(E46+I46+M46+Q46)/4</f>
+        <v>7.75</v>
+      </c>
+      <c r="V46" s="2" t="n">
+        <f aca="false">(F46+J46+N46+R46)/4</f>
+        <v>10</v>
+      </c>
+      <c r="W46" s="2" t="n">
+        <f aca="false">(G46+K46+O46+S46)/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="X46" s="0" t="n">
+        <f aca="false">D46+H46+L46+P46</f>
+        <v>74</v>
+      </c>
+      <c r="Y46" s="0" t="n">
+        <f aca="false">E46+I46+M46+Q46</f>
+        <v>31</v>
+      </c>
+      <c r="Z46" s="0" t="n">
+        <f aca="false">F46+J46+N46+R46</f>
+        <v>40</v>
+      </c>
+      <c r="AA46" s="0" t="n">
+        <f aca="false">G46+K46+O46+S46</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D47" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E47" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="K47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="F46" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="G46" s="2" t="n">
+      <c r="M47" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N47" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="O47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <f aca="false">(D46+E46+F46+G46)/4</f>
+      <c r="Q47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="S47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" s="2" t="n">
+        <f aca="false">(D47+H47+L47+P47)/4</f>
+        <v>24</v>
+      </c>
+      <c r="U47" s="2" t="n">
+        <f aca="false">(E47+I47+M47+Q47)/4</f>
+        <v>9</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <f aca="false">(F47+J47+N47+R47)/4</f>
+        <v>14.25</v>
+      </c>
+      <c r="W47" s="2" t="n">
+        <f aca="false">(G47+K47+O47+S47)/4</f>
+        <v>0.75</v>
+      </c>
+      <c r="X47" s="0" t="n">
+        <f aca="false">D47+H47+L47+P47</f>
+        <v>96</v>
+      </c>
+      <c r="Y47" s="0" t="n">
+        <f aca="false">E47+I47+M47+Q47</f>
+        <v>36</v>
+      </c>
+      <c r="Z47" s="0" t="n">
+        <f aca="false">F47+J47+N47+R47</f>
+        <v>57</v>
+      </c>
+      <c r="AA47" s="0" t="n">
+        <f aca="false">G47+K47+O47+S47</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D49" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="2"/>
+      <c r="D50" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="R50" s="2"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="Q51" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="R51" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="S51" s="0" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <f aca="false">E41/D41*100</f>
+        <v>0</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <f aca="false">F41/$D41*100</f>
+        <v>100</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <f aca="false">G41/$D41*100</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <f aca="false">I41/$H41*100</f>
+        <v>42.8571428571429</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <f aca="false">J41/$H41*100</f>
+        <v>42.8571428571429</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <f aca="false">K41/$H41*100</f>
+        <v>14.2857142857143</v>
+      </c>
+      <c r="J52" s="2" t="n">
+        <f aca="false">M41/$L41*100</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K52" s="2" t="n">
+        <f aca="false">N41/$L41*100</f>
+        <v>66.6666666666667</v>
+      </c>
+      <c r="L52" s="2" t="n">
+        <f aca="false">O41/$L41*100</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="n">
+        <f aca="false">Q41/$P41*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="N52" s="2" t="n">
+        <f aca="false">R41/$P41*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="O52" s="2" t="n">
+        <f aca="false">S41/$P41*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="0" t="n">
+        <f aca="false">Y41/$X41*100</f>
+        <v>30.6122448979592</v>
+      </c>
+      <c r="R52" s="0" t="n">
+        <f aca="false">Z41/$X41*100</f>
+        <v>61.2244897959184</v>
+      </c>
+      <c r="S52" s="0" t="n">
+        <f aca="false">AA41/$X41*100</f>
+        <v>8.16326530612245</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <f aca="false">E42/D42*100</f>
         <v>25</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <f aca="false">F42/$D42*100</f>
+        <v>75</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <f aca="false">G42/$D42*100</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <f aca="false">I42/$H42*100</f>
+        <v>64.2857142857143</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <f aca="false">J42/$H42*100</f>
+        <v>21.4285714285714</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <f aca="false">K42/$H42*100</f>
+        <v>14.2857142857143</v>
+      </c>
+      <c r="J53" s="2" t="n">
+        <f aca="false">M42/$L42*100</f>
+        <v>33.3333333333333</v>
+      </c>
+      <c r="K53" s="2" t="n">
+        <f aca="false">N42/$L42*100</f>
+        <v>66.6666666666667</v>
+      </c>
+      <c r="L53" s="2" t="n">
+        <f aca="false">O42/$L42*100</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2" t="n">
+        <f aca="false">Q42/$P42*100</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="2" t="n">
+        <f aca="false">R42/$P42*100</f>
+        <v>81.8181818181818</v>
+      </c>
+      <c r="O53" s="2" t="n">
+        <f aca="false">S42/$P42*100</f>
+        <v>18.1818181818182</v>
+      </c>
+      <c r="Q53" s="0" t="n">
+        <f aca="false">Y42/$X42*100</f>
+        <v>34.375</v>
+      </c>
+      <c r="R53" s="0" t="n">
+        <f aca="false">Z42/$X42*100</f>
+        <v>53.125</v>
+      </c>
+      <c r="S53" s="0" t="n">
+        <f aca="false">AA42/$X42*100</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <f aca="false">E43/D43*100</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <f aca="false">F43/$D43*100</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <f aca="false">G43/$D43*100</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <f aca="false">I43/$H43*100</f>
+        <v>17.6470588235294</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <f aca="false">J43/$H43*100</f>
+        <v>41.1764705882353</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <f aca="false">K43/$H43*100</f>
+        <v>41.1764705882353</v>
+      </c>
+      <c r="J54" s="2" t="n">
+        <f aca="false">M43/$L43*100</f>
+        <v>21.4285714285714</v>
+      </c>
+      <c r="K54" s="2" t="n">
+        <f aca="false">N43/$L43*100</f>
+        <v>71.4285714285714</v>
+      </c>
+      <c r="L54" s="2" t="n">
+        <f aca="false">O43/$L43*100</f>
+        <v>7.14285714285714</v>
+      </c>
+      <c r="M54" s="2" t="n">
+        <f aca="false">Q43/$P43*100</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="2" t="n">
+        <f aca="false">R43/$P43*100</f>
+        <v>100</v>
+      </c>
+      <c r="O54" s="2" t="n">
+        <f aca="false">S43/$P43*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="0" t="n">
+        <f aca="false">Y43/$X43*100</f>
+        <v>14.5833333333333</v>
+      </c>
+      <c r="R54" s="0" t="n">
+        <f aca="false">Z43/$X43*100</f>
+        <v>68.75</v>
+      </c>
+      <c r="S54" s="0" t="n">
+        <f aca="false">AA43/$X43*100</f>
+        <v>16.6666666666667</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <f aca="false">E44/D44*100</f>
+        <v>82.7586206896552</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <f aca="false">F44/$D44*100</f>
+        <v>17.2413793103448</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <f aca="false">G44/$D44*100</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <f aca="false">I44/$H44*100</f>
+        <v>15.3846153846154</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <f aca="false">J44/$H44*100</f>
+        <v>69.2307692307692</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <f aca="false">K44/$H44*100</f>
+        <v>15.3846153846154</v>
+      </c>
+      <c r="J55" s="2" t="n">
+        <f aca="false">M44/$L44*100</f>
+        <v>57.8947368421053</v>
+      </c>
+      <c r="K55" s="2" t="n">
+        <f aca="false">N44/$L44*100</f>
+        <v>42.1052631578947</v>
+      </c>
+      <c r="L55" s="2" t="n">
+        <f aca="false">O44/$L44*100</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2" t="n">
+        <f aca="false">Q44/$P44*100</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="2" t="n">
+        <f aca="false">R44/$P44*100</f>
+        <v>100</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <f aca="false">S44/$P44*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="0" t="n">
+        <f aca="false">Y44/$X44*100</f>
+        <v>53.6231884057971</v>
+      </c>
+      <c r="R55" s="0" t="n">
+        <f aca="false">Z44/$X44*100</f>
+        <v>43.4782608695652</v>
+      </c>
+      <c r="S55" s="0" t="n">
+        <f aca="false">AA44/$X44*100</f>
+        <v>2.89855072463768</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <f aca="false">E45/D45*100</f>
+        <v>11.1111111111111</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <f aca="false">F45/$D45*100</f>
+        <v>88.8888888888889</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <f aca="false">G45/$D45*100</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <f aca="false">I45/$H45*100</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <f aca="false">J45/$H45*100</f>
+        <v>66.6666666666667</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <f aca="false">K45/$H45*100</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <f aca="false">M45/$L45*100</f>
+        <v>34.6153846153846</v>
+      </c>
+      <c r="K56" s="2" t="n">
+        <f aca="false">N45/$L45*100</f>
+        <v>65.3846153846154</v>
+      </c>
+      <c r="L56" s="2" t="n">
+        <f aca="false">O45/$L45*100</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2" t="n">
+        <f aca="false">Q45/$P45*100</f>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="N56" s="2" t="n">
+        <f aca="false">R45/$P45*100</f>
+        <v>83.3333333333333</v>
+      </c>
+      <c r="O56" s="2" t="n">
+        <f aca="false">S45/$P45*100</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="0" t="n">
+        <f aca="false">Y45/$X45*100</f>
+        <v>24.5283018867925</v>
+      </c>
+      <c r="R56" s="0" t="n">
+        <f aca="false">Z45/$X45*100</f>
+        <v>73.5849056603774</v>
+      </c>
+      <c r="S56" s="0" t="n">
+        <f aca="false">AA45/$X45*100</f>
+        <v>1.88679245283019</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <f aca="false">E46/D46*100</f>
+        <v>40</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <f aca="false">F46/$D46*100</f>
+        <v>60</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <f aca="false">G46/$D46*100</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <f aca="false">I46/$H46*100</f>
+        <v>64.8648648648649</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <f aca="false">J46/$H46*100</f>
+        <v>29.7297297297297</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <f aca="false">K46/$H46*100</f>
+        <v>5.40540540540541</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <f aca="false">M46/$L46*100</f>
+        <v>19.047619047619</v>
+      </c>
+      <c r="K57" s="2" t="n">
+        <f aca="false">N46/$L46*100</f>
+        <v>80.952380952381</v>
+      </c>
+      <c r="L57" s="2" t="n">
+        <f aca="false">O46/$L46*100</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="n">
+        <f aca="false">Q46/$P46*100</f>
+        <v>9.09090909090909</v>
+      </c>
+      <c r="N57" s="2" t="n">
+        <f aca="false">R46/$P46*100</f>
+        <v>81.8181818181818</v>
+      </c>
+      <c r="O57" s="2" t="n">
+        <f aca="false">S46/$P46*100</f>
+        <v>9.09090909090909</v>
+      </c>
+      <c r="Q57" s="0" t="n">
+        <f aca="false">Y46/$X46*100</f>
+        <v>41.8918918918919</v>
+      </c>
+      <c r="R57" s="0" t="n">
+        <f aca="false">Z46/$X46*100</f>
+        <v>54.0540540540541</v>
+      </c>
+      <c r="S57" s="0" t="n">
+        <f aca="false">AA46/$X46*100</f>
+        <v>4.05405405405405</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <f aca="false">E47/D47*100</f>
+        <v>81.8181818181818</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <f aca="false">F47/$D47*100</f>
+        <v>18.1818181818182</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <f aca="false">G47/$D47*100</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <f aca="false">I47/$H47*100</f>
+        <v>4.34782608695652</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <f aca="false">J47/$H47*100</f>
+        <v>86.9565217391304</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <f aca="false">K47/$H47*100</f>
+        <v>8.69565217391304</v>
+      </c>
+      <c r="J58" s="2" t="n">
+        <f aca="false">M47/$L47*100</f>
+        <v>32</v>
+      </c>
+      <c r="K58" s="2" t="n">
+        <f aca="false">N47/$L47*100</f>
+        <v>68</v>
+      </c>
+      <c r="L58" s="2" t="n">
+        <f aca="false">O47/$L47*100</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="n">
+        <f aca="false">Q47/$P47*100</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="2" t="n">
+        <f aca="false">R47/$P47*100</f>
+        <v>93.3333333333333</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <f aca="false">S47/$P47*100</f>
+        <v>6.66666666666667</v>
+      </c>
+      <c r="Q58" s="0" t="n">
+        <f aca="false">Y47/$X47*100</f>
+        <v>37.5</v>
+      </c>
+      <c r="R58" s="0" t="n">
+        <f aca="false">Z47/$X47*100</f>
+        <v>59.375</v>
+      </c>
+      <c r="S58" s="0" t="n">
+        <f aca="false">AA47/$X47*100</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="P60" s="0" t="s">
+        <v>940</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <f aca="false">AVERAGE(Q52:Q58)</f>
+        <v>33.8734229165391</v>
+      </c>
+      <c r="R60" s="0" t="n">
+        <f aca="false">AVERAGE(R52:R58)</f>
+        <v>59.0845300542736</v>
+      </c>
+      <c r="S60" s="0" t="n">
+        <f aca="false">AVERAGE(S52:S58)</f>
+        <v>7.04204702918729</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <f aca="false">AVERAGE(D67:G67)</f>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <f aca="false">AVERAGE(D68:G68)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <f aca="false">AVERAGE(D69:G69)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <f aca="false">AVERAGE(D70:G70)</f>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <f aca="false">AVERAGE(D71:G71)</f>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <f aca="false">AVERAGE(D72:G72)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C73" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <f aca="false">AVERAGE(D73:G73)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D76" s="0" t="s">
+        <v>937</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>938</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>30.6122448979592</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>61.2244897959184</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>8.16326530612245</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" s="0" t="n">
+        <v>34.375</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>53.125</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="0" t="n">
+        <v>14.5833333333333</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>68.75</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>16.6666666666667</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="0" t="n">
+        <v>53.6231884057971</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>43.4782608695652</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>2.89855072463768</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>24.5283018867925</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>73.5849056603774</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>1.88679245283019</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="0" t="n">
+        <v>41.8918918918919</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>54.0540540540541</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>4.05405405405405</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="0" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>59.375</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>3.125</v>
       </c>
     </row>
   </sheetData>
@@ -7350,15 +9306,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:HO59"/>
+  <dimension ref="A1:HO57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P36" activeCellId="0" sqref="P36"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="223" min="1" style="0" width="8.84"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -7366,7 +9325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>34</v>
       </c>
@@ -7375,6 +9334,7 @@
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="I4" s="2"/>
       <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
@@ -7399,126 +9359,147 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.981746031746031</v>
+        <f aca="false">AVERAGE(B9:AE9)</f>
+        <v>0.981746031746032</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="n">
+        <f aca="false">AVERAGE(B10:AE10)</f>
         <v>0.957867965367965</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="2" t="n">
+        <f aca="false">AVERAGE(B11:AE11)</f>
         <v>0.964348178137652</v>
       </c>
       <c r="AG5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AH5" s="2" t="n">
+        <f aca="false">AVERAGE(AH9:BK9)</f>
         <v>0.859551656920078</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AJ5" s="2" t="n">
+        <f aca="false">AVERAGE(AH10:BK10)</f>
         <v>0.74074808232703</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AL5" s="2" t="n">
+        <f aca="false">AVERAGE(AH11:BK11)</f>
         <v>0.781438722055652</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="BN5" s="2" t="n">
+        <f aca="false">AVERAGE(BN9:CQ9)</f>
         <v>0.988271604938272</v>
       </c>
       <c r="BO5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="BP5" s="2" t="n">
+        <f aca="false">AVERAGE(BN10:CQ10)</f>
         <v>0.992063492063492</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="BR5" s="2" t="n">
+        <f aca="false">AVERAGE(BN11:CQ11)</f>
         <v>0.989808515998992</v>
       </c>
       <c r="CS5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="CT5" s="2" t="n">
+        <f aca="false">AVERAGE(CT9:DW9)</f>
         <v>0.917546159168966</v>
       </c>
       <c r="CU5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="CV5" s="2" t="n">
+        <f aca="false">AVERAGE(CT10:DW10)</f>
         <v>0.91814099643047</v>
       </c>
       <c r="CW5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="CX5" s="2" t="n">
+        <f aca="false">AVERAGE(CT11:DW11)</f>
         <v>0.917491645781119</v>
       </c>
       <c r="DY5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="DZ5" s="2" t="n">
+        <f aca="false">AVERAGE(DZ9:FC9)</f>
         <v>0.960493827160494</v>
       </c>
       <c r="EA5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="EB5" s="2" t="n">
+        <f aca="false">AVERAGE(DZ10:FC10)</f>
         <v>0.980952380952381</v>
       </c>
       <c r="EC5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="ED5" s="2" t="n">
+        <f aca="false">AVERAGE(DZ11:FC11)</f>
         <v>0.965364071554548</v>
       </c>
       <c r="FE5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="FF5" s="2" t="n">
+        <f aca="false">AVERAGE(FF9:GI9)</f>
         <v>0.965217391304348</v>
       </c>
       <c r="FG5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="FH5" s="2" t="n">
+        <f aca="false">AVERAGE(FF10:GI10)</f>
         <v>0.983730158730159</v>
       </c>
       <c r="FI5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="FJ5" s="2" t="n">
+        <f aca="false">AVERAGE(FF11:GI11)</f>
         <v>0.972707231040564</v>
       </c>
       <c r="GK5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="GL5" s="2" t="n">
+        <f aca="false">AVERAGE(GL9:HO9)</f>
         <v>0.88870530703864</v>
       </c>
       <c r="GM5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="GN5" s="2" t="n">
+        <f aca="false">AVERAGE(GL10:HO10)</f>
         <v>0.889300144300144</v>
       </c>
       <c r="GO5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="GP5" s="2" t="n">
+        <f aca="false">AVERAGE(GL11:HO11)</f>
         <v>0.888650793650794</v>
       </c>
     </row>
@@ -7527,46 +9508,52 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="n">
+        <f aca="false">SUM(B42:AE42)</f>
         <v>7</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AH6" s="2" t="n">
+        <f aca="false">SUM(AH40:BK40)</f>
         <v>4</v>
       </c>
       <c r="BM6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="BN6" s="2" t="n">
+        <f aca="false">SUM(BN44:CQ44)</f>
         <v>6</v>
       </c>
       <c r="CS6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="CT6" s="2" t="n">
+        <f aca="false">SUM(CT44:DW44)</f>
         <v>29</v>
       </c>
       <c r="DY6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="DZ6" s="2" t="n">
+        <f aca="false">SUM(DZ44:FC44)</f>
         <v>9</v>
       </c>
       <c r="FE6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="FF6" s="2" t="n">
+        <f aca="false">SUM(FF44:GI44)</f>
         <v>5</v>
       </c>
       <c r="GK6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="GL6" s="2" t="n">
+        <f aca="false">SUM(GL44:HO44)</f>
         <v>33</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -10158,7 +12145,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>79</v>
@@ -15046,8 +17032,6 @@
         <v>313</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -15064,13 +17048,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:HO79"/>
+  <dimension ref="A1:HO66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GU61" activeCellId="0" sqref="GU61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FE1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="FT46" activeCellId="0" sqref="FT46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="223" min="1" style="0" width="11.76"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -15080,7 +17067,6 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>34</v>
@@ -15114,127 +17100,148 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
+        <f aca="false">AVERAGE(B9:AE9)</f>
         <v>0.85880174291939</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.885593669615409</v>
+        <f aca="false">AVERAGE(B10:AE10)</f>
+        <v>0.874760336282075</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.862159222683131</v>
+        <f aca="false">AVERAGE(B11:AE11)</f>
+        <v>0.856974037497935</v>
       </c>
       <c r="AG5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AH5" s="2" t="n">
+        <f aca="false">AVERAGE(AH9:BK9)</f>
         <v>0.886322751322751</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AJ5" s="2" t="n">
-        <v>0.67568244557375</v>
+        <f aca="false">AVERAGE(AH10:BK10)</f>
+        <v>0.668301493192798</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AL5" s="2" t="n">
-        <v>0.752119830900319</v>
+        <f aca="false">AVERAGE(AH11:BK11)</f>
+        <v>0.746839000619468</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="BN5" s="2" t="n">
+        <f aca="false">AVERAGE(BN9:CQ9)</f>
         <v>0.864619903516962</v>
       </c>
       <c r="BO5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="BP5" s="2" t="n">
-        <v>0.900537308906874</v>
+        <f aca="false">AVERAGE(BN10:CQ10)</f>
+        <v>0.889703975573541</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="BR5" s="2" t="n">
-        <v>0.875163341775184</v>
+        <f aca="false">AVERAGE(BN11:CQ11)</f>
+        <v>0.869978156589888</v>
       </c>
       <c r="CS5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="CT5" s="2" t="n">
-        <v>0.937626050420168</v>
+        <f aca="false">AVERAGE(CT9:DW9)</f>
+        <v>0.944292717086835</v>
       </c>
       <c r="CU5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="CV5" s="2" t="n">
-        <v>0.898489710772319</v>
+        <f aca="false">AVERAGE(CT10:DW10)</f>
+        <v>0.894918282200891</v>
       </c>
       <c r="CW5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="CX5" s="2" t="n">
-        <v>0.913398214845583</v>
+        <f aca="false">AVERAGE(CT11:DW11)</f>
+        <v>0.914904306826723</v>
       </c>
       <c r="DY5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="DZ5" s="2" t="n">
+        <f aca="false">AVERAGE(DZ9:FC9)</f>
         <v>0.96625</v>
       </c>
       <c r="EA5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="EB5" s="2" t="n">
-        <v>0.88609072087333</v>
+        <f aca="false">AVERAGE(DZ10:FC10)</f>
+        <v>0.876447863730472</v>
       </c>
       <c r="EC5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="ED5" s="2" t="n">
-        <v>0.919007876654936</v>
+        <f aca="false">AVERAGE(DZ11:FC11)</f>
+        <v>0.913472671119706</v>
       </c>
       <c r="FE5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="FF5" s="2" t="n">
-        <v>0.852305408995451</v>
+        <f aca="false">AVERAGE(FF9:GI9)</f>
+        <v>0.858972075662118</v>
       </c>
       <c r="FG5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="FH5" s="2" t="n">
-        <v>0.83896856766422</v>
+        <f aca="false">AVERAGE(FF10:GI10)</f>
+        <v>0.835397139092791</v>
       </c>
       <c r="FI5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="FJ5" s="2" t="n">
-        <v>0.838862081470894</v>
+        <f aca="false">AVERAGE(FF11:GI11)</f>
+        <v>0.840661023269836</v>
       </c>
       <c r="GK5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="GL5" s="2" t="n">
-        <v>0.892209772798008</v>
+        <f aca="false">AVERAGE(GL9:HO9)</f>
+        <v>0.903638344226579</v>
       </c>
       <c r="GM5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="GN5" s="2" t="n">
-        <v>0.900486124181776</v>
+        <f aca="false">AVERAGE(GL10:HO10)</f>
+        <v>0.901081362277014</v>
       </c>
       <c r="GO5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="GP5" s="2" t="n">
-        <v>0.890710306277257</v>
+        <f aca="false">AVERAGE(GL11:HO11)</f>
+        <v>0.896953692520643</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15242,46 +17249,52 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="n">
+        <f aca="false">SUM(B45:AE45)</f>
         <v>28</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AH6" s="2" t="n">
+        <f aca="false">SUM(AH35:BK35)</f>
         <v>14</v>
       </c>
       <c r="BM6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="BN6" s="2" t="n">
+        <f aca="false">SUM(BN45:CQ45)</f>
         <v>17</v>
       </c>
       <c r="CS6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="CT6" s="2" t="n">
-        <v>14</v>
+        <f aca="false">SUM(CT44:DW44)</f>
+        <v>13</v>
       </c>
       <c r="DY6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="DZ6" s="2" t="n">
+        <f aca="false">SUM(DZ44:FC44)</f>
         <v>6</v>
       </c>
       <c r="FE6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="FF6" s="2" t="n">
-        <v>40</v>
+        <f aca="false">SUM(FF45:GI45)</f>
+        <v>37</v>
       </c>
       <c r="GK6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="GL6" s="2" t="n">
-        <v>25</v>
+        <f aca="false">SUM(GL45:HO45)</f>
+        <v>23</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -16267,7 +18280,7 @@
         <v>1</v>
       </c>
       <c r="DQ9" s="2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="DR9" s="2" t="n">
         <v>1</v>
@@ -16453,7 +18466,7 @@
         <v>1</v>
       </c>
       <c r="GC9" s="2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="GD9" s="2" t="n">
         <v>1</v>
@@ -16495,7 +18508,7 @@
         <v>1</v>
       </c>
       <c r="GR9" s="2" t="n">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="GS9" s="2" t="n">
         <v>1</v>
@@ -16546,7 +18559,7 @@
         <v>1</v>
       </c>
       <c r="HI9" s="2" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="HJ9" s="2" t="n">
         <v>1</v>
@@ -16590,7 +18603,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0.857142857142857</v>
@@ -16641,7 +18654,7 @@
         <v>1</v>
       </c>
       <c r="Y10" s="2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Z10" s="2" t="n">
         <v>1</v>
@@ -16683,7 +18696,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="AN10" s="2" t="n">
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="AO10" s="2" t="n">
         <v>0.714285714285714</v>
@@ -16734,7 +18747,7 @@
         <v>0.5</v>
       </c>
       <c r="BE10" s="2" t="n">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="BF10" s="2" t="n">
         <v>1</v>
@@ -16776,7 +18789,7 @@
         <v>1</v>
       </c>
       <c r="BT10" s="2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="BU10" s="2" t="n">
         <v>0.857142857142857</v>
@@ -16827,7 +18840,7 @@
         <v>1</v>
       </c>
       <c r="CK10" s="2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="CL10" s="2" t="n">
         <v>1</v>
@@ -16869,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="CZ10" s="2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="DA10" s="2" t="n">
         <v>0.857142857142857</v>
@@ -16962,7 +18975,7 @@
         <v>1</v>
       </c>
       <c r="EF10" s="2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="EG10" s="2" t="n">
         <v>1</v>
@@ -17013,7 +19026,7 @@
         <v>1</v>
       </c>
       <c r="EW10" s="2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="EX10" s="2" t="n">
         <v>1</v>
@@ -17055,7 +19068,7 @@
         <v>1</v>
       </c>
       <c r="FL10" s="2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="FM10" s="2" t="n">
         <v>0.857142857142857</v>
@@ -17148,7 +19161,7 @@
         <v>1</v>
       </c>
       <c r="GR10" s="2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.875</v>
       </c>
       <c r="GS10" s="2" t="n">
         <v>1</v>
@@ -17243,7 +19256,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>1</v>
+        <v>0.933333333333</v>
       </c>
       <c r="I11" s="2" t="n">
         <v>0.923076923076923</v>
@@ -17294,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="Y11" s="2" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8</v>
       </c>
       <c r="Z11" s="2" t="n">
         <v>0.5</v>
@@ -17336,7 +19349,7 @@
         <v>0.8</v>
       </c>
       <c r="AN11" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.615384615384</v>
       </c>
       <c r="AO11" s="2" t="n">
         <v>0.769230769230769</v>
@@ -17387,7 +19400,7 @@
         <v>0.666666666666667</v>
       </c>
       <c r="BE11" s="2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="BF11" s="2" t="n">
         <v>1</v>
@@ -17429,7 +19442,7 @@
         <v>1</v>
       </c>
       <c r="BT11" s="2" t="n">
-        <v>1</v>
+        <v>0.93333333333</v>
       </c>
       <c r="BU11" s="2" t="n">
         <v>0.857142857142857</v>
@@ -17480,7 +19493,7 @@
         <v>1</v>
       </c>
       <c r="CK11" s="2" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8</v>
       </c>
       <c r="CL11" s="2" t="n">
         <v>0.666666666666667</v>
@@ -17522,7 +19535,7 @@
         <v>1</v>
       </c>
       <c r="CZ11" s="2" t="n">
-        <v>0.923076923076923</v>
+        <v>0.8571485714</v>
       </c>
       <c r="DA11" s="2" t="n">
         <v>0.857142857142857</v>
@@ -17573,7 +19586,7 @@
         <v>1</v>
       </c>
       <c r="DQ11" s="2" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="DR11" s="2" t="n">
         <v>1</v>
@@ -17615,7 +19628,7 @@
         <v>1</v>
       </c>
       <c r="EF11" s="2" t="n">
-        <v>0.769230769230769</v>
+        <v>0.714285714285</v>
       </c>
       <c r="EG11" s="2" t="n">
         <v>1</v>
@@ -17666,7 +19679,7 @@
         <v>1</v>
       </c>
       <c r="EW11" s="2" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="EX11" s="2" t="n">
         <v>1</v>
@@ -17708,7 +19721,7 @@
         <v>1</v>
       </c>
       <c r="FL11" s="2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="FM11" s="2" t="n">
         <v>0.857142857142857</v>
@@ -17759,7 +19772,7 @@
         <v>1</v>
       </c>
       <c r="GC11" s="2" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="GD11" s="2" t="n">
         <v>1</v>
@@ -17801,7 +19814,7 @@
         <v>1</v>
       </c>
       <c r="GR11" s="2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="GS11" s="2" t="n">
         <v>1</v>
@@ -17852,7 +19865,7 @@
         <v>1</v>
       </c>
       <c r="HI11" s="2" t="n">
-        <v>0.888888888888889</v>
+        <v>1</v>
       </c>
       <c r="HJ11" s="2" t="n">
         <v>1</v>
@@ -17873,7 +19886,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>79</v>
@@ -22618,7 +24630,7 @@
         <v>0</v>
       </c>
       <c r="DQ44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR44" s="2" t="n">
         <v>0</v>
@@ -22940,9 +24952,7 @@
       <c r="DN45" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="DQ45" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="DQ45" s="2"/>
       <c r="DU45" s="2" t="s">
         <v>341</v>
       </c>
@@ -23013,7 +25023,7 @@
         <v>0</v>
       </c>
       <c r="FT45" s="2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="FU45" s="2" t="n">
         <v>0</v>
@@ -23040,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="GC45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GD45" s="2" t="n">
         <v>0</v>
@@ -23082,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="GR45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GS45" s="2" t="n">
         <v>0</v>
@@ -23133,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="HI45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HJ45" s="2" t="n">
         <v>0</v>
@@ -23269,9 +25279,7 @@
       <c r="FX46" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="GC46" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="GC46" s="2"/>
       <c r="GE46" s="2" t="s">
         <v>382</v>
       </c>
@@ -23287,9 +25295,7 @@
       <c r="GN46" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="GR46" s="2" t="s">
-        <v>500</v>
-      </c>
+      <c r="GR46" s="2"/>
       <c r="GW46" s="2" t="s">
         <v>370</v>
       </c>
@@ -23311,9 +25317,7 @@
       <c r="HF46" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="HI46" s="2" t="s">
-        <v>328</v>
-      </c>
+      <c r="HI46" s="2"/>
       <c r="HL46" s="2" t="s">
         <v>423</v>
       </c>
@@ -23447,13 +25451,16 @@
       <c r="T51" s="2" t="s">
         <v>523</v>
       </c>
+      <c r="FT51" s="2" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T52" s="2" t="s">
         <v>529</v>
       </c>
       <c r="FT52" s="2" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23461,7 +25468,7 @@
         <v>533</v>
       </c>
       <c r="FT53" s="2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23469,7 +25476,7 @@
         <v>538</v>
       </c>
       <c r="FT54" s="2" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23477,7 +25484,7 @@
         <v>541</v>
       </c>
       <c r="FT55" s="2" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23485,49 +25492,47 @@
         <v>466</v>
       </c>
       <c r="FT56" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="FT57" s="2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="FT58" s="2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="FT59" s="2" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="FT60" s="2" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="FT61" s="2" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="FT62" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="FT63" s="2" t="s">
-        <v>553</v>
-      </c>
+      <c r="FT63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="FT64" s="2" t="s">
-        <v>554</v>
-      </c>
+      <c r="FT64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="FT65" s="2" t="s">
-        <v>557</v>
-      </c>
+      <c r="FT65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -23559,13 +25564,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:HO48"/>
+  <dimension ref="A1:HO35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="GM1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="GK4" activeCellId="0" sqref="GK4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="FQ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GI28" activeCellId="0" sqref="GI28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="234" min="1" style="0" width="11.71"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -23575,7 +25583,6 @@
         <v>563</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>34</v>
@@ -23609,127 +25616,148 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
+        <f aca="false">AVERAGE(B9:AE9)</f>
         <v>0.807089947089947</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.64505291005291</v>
+        <f aca="false">AVERAGE(B10:AE10)</f>
+        <v>0.640886243386243</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.700210562857622</v>
+        <f aca="false">AVERAGE(B11:AE11)</f>
+        <v>0.697988340635289</v>
       </c>
       <c r="AG5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AH5" s="2" t="n">
+        <f aca="false">AVERAGE(AH9:BK9)</f>
         <v>0.533333333333333</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AJ5" s="2" t="n">
-        <v>0.343518518518518</v>
+        <f aca="false">AVERAGE(AH10:BK10)</f>
+        <v>0.340542328042328</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AL5" s="2" t="n">
-        <v>0.400763865763866</v>
+        <f aca="false">AVERAGE(AH11:BK11)</f>
+        <v>0.398627113627088</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="BN5" s="2" t="n">
+        <f aca="false">AVERAGE(BN9:CQ9)</f>
         <v>0.843333333333333</v>
       </c>
       <c r="BO5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="BP5" s="2" t="n">
-        <v>0.699656084656085</v>
+        <f aca="false">AVERAGE(BN10:CQ10)</f>
+        <v>0.689933862433862</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="BR5" s="2" t="n">
-        <v>0.746977016172419</v>
+        <f aca="false">AVERAGE(BN11:CQ11)</f>
+        <v>0.740310349505419</v>
       </c>
       <c r="CS5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="CT5" s="2" t="n">
-        <v>0.737563732563733</v>
+        <f aca="false">AVERAGE(CT9:DW9)</f>
+        <v>0.754230399227955</v>
       </c>
       <c r="CU5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="CV5" s="2" t="n">
-        <v>0.595291005291005</v>
+        <f aca="false">AVERAGE(CT10:DW10)</f>
+        <v>0.603227513227513</v>
       </c>
       <c r="CW5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="CX5" s="2" t="n">
-        <v>0.640574888074888</v>
+        <f aca="false">AVERAGE(CT11:DW11)</f>
+        <v>0.652174399671028</v>
       </c>
       <c r="DY5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="DZ5" s="2" t="n">
-        <v>0.799140211640212</v>
+        <f aca="false">AVERAGE(DZ9:FC9)</f>
+        <v>0.807473544973545</v>
       </c>
       <c r="EA5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="EB5" s="2" t="n">
-        <v>0.703386243386243</v>
+        <f aca="false">AVERAGE(DZ10:FC10)</f>
+        <v>0.703783068783069</v>
       </c>
       <c r="EC5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="ED5" s="2" t="n">
-        <v>0.719560774737245</v>
+        <f aca="false">AVERAGE(DZ11:FC11)</f>
+        <v>0.718290933467404</v>
       </c>
       <c r="FE5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="FF5" s="2" t="n">
+        <f aca="false">AVERAGE(FF9:GI9)</f>
         <v>0.753835978835979</v>
       </c>
       <c r="FG5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="FH5" s="2" t="n">
-        <v>0.611428571428571</v>
+        <f aca="false">AVERAGE(FF10:GI10)</f>
+        <v>0.605079365079365</v>
       </c>
       <c r="FI5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="FJ5" s="2" t="n">
-        <v>0.649013315022443</v>
+        <f aca="false">AVERAGE(FF11:GI11)</f>
+        <v>0.645889777373953</v>
       </c>
       <c r="GK5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="GL5" s="2" t="n">
-        <v>0.828840187590188</v>
+        <f aca="false">AVERAGE(GL9:HO9)</f>
+        <v>0.844709870129851</v>
       </c>
       <c r="GM5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="GN5" s="2" t="n">
-        <v>0.774470899470899</v>
+        <f aca="false">AVERAGE(GL10:HO10)</f>
+        <v>0.77962962962963</v>
       </c>
       <c r="GO5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="GP5" s="2" t="n">
-        <v>0.785693007339617</v>
+        <f aca="false">AVERAGE(GL11:HO11)</f>
+        <v>0.795534277180847</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23737,46 +25765,52 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="n">
+        <f aca="false">SUM(B29:AE29)</f>
         <v>6</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AH6" s="2" t="n">
+        <f aca="false">SUM(AH25:BK25)</f>
         <v>3</v>
       </c>
       <c r="BM6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="BN6" s="2" t="n">
+        <f aca="false">SUM(BN28:CQ28)</f>
         <v>14</v>
       </c>
       <c r="CS6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="CT6" s="2" t="n">
-        <v>21</v>
+        <f aca="false">SUM(CT29:DW29)</f>
+        <v>19</v>
       </c>
       <c r="DY6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="DZ6" s="2" t="n">
-        <v>27</v>
+        <f aca="false">SUM(DZ29:FC29)</f>
+        <v>26</v>
       </c>
       <c r="FE6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="FF6" s="2" t="n">
+        <f aca="false">SUM(FF28:GI28)</f>
         <v>21</v>
       </c>
       <c r="GK6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="GL6" s="2" t="n">
-        <v>27</v>
+        <f aca="false">SUM(GL30:HO30)</f>
+        <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -24714,7 +26748,7 @@
         <v>0.8</v>
       </c>
       <c r="DA9" s="2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666</v>
       </c>
       <c r="DB9" s="2" t="n">
         <v>1</v>
@@ -24756,7 +26790,7 @@
         <v>1</v>
       </c>
       <c r="DO9" s="2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.66666666666</v>
       </c>
       <c r="DP9" s="2" t="n">
         <v>0.5</v>
@@ -24849,7 +26883,7 @@
         <v>1</v>
       </c>
       <c r="EU9" s="2" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="EV9" s="2" t="n">
         <v>0.5</v>
@@ -24993,7 +27027,7 @@
         <v>0.5</v>
       </c>
       <c r="GS9" s="2" t="n">
-        <v>0.428571428571429</v>
+        <v>0.571328571428</v>
       </c>
       <c r="GT9" s="2" t="n">
         <v>1</v>
@@ -25035,7 +27069,7 @@
         <v>1</v>
       </c>
       <c r="HG9" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>1</v>
       </c>
       <c r="HH9" s="2" t="n">
         <v>0.666666666666667</v>
@@ -25088,7 +27122,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>1</v>
@@ -25181,7 +27215,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="2" t="n">
-        <v>0.714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="AP10" s="2" t="n">
         <v>1</v>
@@ -25274,7 +27308,7 @@
         <v>1</v>
       </c>
       <c r="BU10" s="2" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="BV10" s="2" t="n">
         <v>1</v>
@@ -25316,7 +27350,7 @@
         <v>0.1</v>
       </c>
       <c r="CI10" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="CJ10" s="2" t="n">
         <v>1</v>
@@ -25367,7 +27401,7 @@
         <v>0.8</v>
       </c>
       <c r="DA10" s="2" t="n">
-        <v>0.428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="DB10" s="2" t="n">
         <v>1</v>
@@ -25409,7 +27443,7 @@
         <v>0.3</v>
       </c>
       <c r="DO10" s="2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="DP10" s="2" t="n">
         <v>0.25</v>
@@ -25460,7 +27494,7 @@
         <v>1</v>
       </c>
       <c r="EG10" s="2" t="n">
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="EH10" s="2" t="n">
         <v>0</v>
@@ -25502,7 +27536,7 @@
         <v>0.3</v>
       </c>
       <c r="EU10" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="EV10" s="2" t="n">
         <v>0.75</v>
@@ -25553,7 +27587,7 @@
         <v>0.4</v>
       </c>
       <c r="FM10" s="2" t="n">
-        <v>0.857142857142857</v>
+        <v>0.75</v>
       </c>
       <c r="FN10" s="2" t="n">
         <v>1</v>
@@ -25595,7 +27629,7 @@
         <v>0.3</v>
       </c>
       <c r="GA10" s="2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="GB10" s="2" t="n">
         <v>0.5</v>
@@ -25646,7 +27680,7 @@
         <v>0.6</v>
       </c>
       <c r="GS10" s="2" t="n">
-        <v>0.428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="GT10" s="2" t="n">
         <v>1</v>
@@ -25688,7 +27722,7 @@
         <v>0.7</v>
       </c>
       <c r="HG10" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.75</v>
       </c>
       <c r="HH10" s="2" t="n">
         <v>1</v>
@@ -25741,7 +27775,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>1</v>
+        <v>0.93333333333</v>
       </c>
       <c r="J11" s="2" t="n">
         <v>1</v>
@@ -25834,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="2" t="n">
-        <v>0.833333333333333</v>
+        <v>0.76923076923</v>
       </c>
       <c r="AP11" s="2" t="n">
         <v>1</v>
@@ -25927,7 +27961,7 @@
         <v>1</v>
       </c>
       <c r="BU11" s="2" t="n">
-        <v>1</v>
+        <v>0.93333333333</v>
       </c>
       <c r="BV11" s="2" t="n">
         <v>1</v>
@@ -25969,7 +28003,7 @@
         <v>0.142857142857143</v>
       </c>
       <c r="CI11" s="2" t="n">
-        <v>0.8</v>
+        <v>0.66666666666</v>
       </c>
       <c r="CJ11" s="2" t="n">
         <v>0.888888888888889</v>
@@ -26020,7 +28054,7 @@
         <v>0.8</v>
       </c>
       <c r="DA11" s="2" t="n">
-        <v>0.461538461538462</v>
+        <v>0.571428571328</v>
       </c>
       <c r="DB11" s="2" t="n">
         <v>1</v>
@@ -26062,7 +28096,7 @@
         <v>0.461538461538462</v>
       </c>
       <c r="DO11" s="2" t="n">
-        <v>0.333333333333333</v>
+        <v>0.571428571428</v>
       </c>
       <c r="DP11" s="2" t="n">
         <v>0.333333333333333</v>
@@ -26113,7 +28147,7 @@
         <v>0.909090909090909</v>
       </c>
       <c r="EG11" s="2" t="n">
-        <v>0.571428571428571</v>
+        <v>0.533333333333333</v>
       </c>
       <c r="EH11" s="2" t="n">
         <v>0</v>
@@ -26206,7 +28240,7 @@
         <v>0.571428571428571</v>
       </c>
       <c r="FM11" s="2" t="n">
-        <v>0.923076923076923</v>
+        <v>0.8571485714</v>
       </c>
       <c r="FN11" s="2" t="n">
         <v>1</v>
@@ -26248,7 +28282,7 @@
         <v>0.461538461538462</v>
       </c>
       <c r="GA11" s="2" t="n">
-        <v>0.25</v>
+        <v>0.222222222222222</v>
       </c>
       <c r="GB11" s="2" t="n">
         <v>0.5</v>
@@ -26299,7 +28333,7 @@
         <v>0.545454545454545</v>
       </c>
       <c r="GS11" s="2" t="n">
-        <v>0.428571428571429</v>
+        <v>0.533333333333</v>
       </c>
       <c r="GT11" s="2" t="n">
         <v>1</v>
@@ -26341,7 +28375,7 @@
         <v>0.823529411764706</v>
       </c>
       <c r="HG11" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.857142857142</v>
       </c>
       <c r="HH11" s="2" t="n">
         <v>0.8</v>
@@ -26368,7 +28402,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
         <v>79</v>
@@ -29010,7 +31043,7 @@
         <v>1</v>
       </c>
       <c r="DA29" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DB29" s="2" t="n">
         <v>0</v>
@@ -29052,7 +31085,7 @@
         <v>0</v>
       </c>
       <c r="DO29" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DP29" s="2" t="n">
         <v>1</v>
@@ -29145,7 +31178,7 @@
         <v>0</v>
       </c>
       <c r="EU29" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EV29" s="2" t="n">
         <v>3</v>
@@ -29255,7 +31288,7 @@
         <v>698</v>
       </c>
       <c r="DO30" s="2" t="s">
-        <v>616</v>
+        <v>680</v>
       </c>
       <c r="DP30" s="2" t="s">
         <v>600</v>
@@ -29300,7 +31333,7 @@
         <v>376</v>
       </c>
       <c r="EU30" s="2" t="s">
-        <v>616</v>
+        <v>701</v>
       </c>
       <c r="EV30" s="2" t="s">
         <v>608</v>
@@ -29342,7 +31375,7 @@
         <v>3</v>
       </c>
       <c r="GS30" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="GT30" s="2" t="n">
         <v>0</v>
@@ -29384,7 +31417,7 @@
         <v>0</v>
       </c>
       <c r="HG30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HH30" s="2" t="n">
         <v>2</v>
@@ -29433,9 +31466,7 @@
       <c r="DL31" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="DO31" s="2" t="s">
-        <v>680</v>
-      </c>
+      <c r="DO31" s="2"/>
       <c r="DR31" s="2" t="s">
         <v>648</v>
       </c>
@@ -29457,9 +31488,7 @@
       <c r="ER31" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="EU31" s="2" t="s">
-        <v>701</v>
-      </c>
+      <c r="EU31" s="2"/>
       <c r="EV31" s="2" t="s">
         <v>360</v>
       </c>
@@ -29499,9 +31528,7 @@
       <c r="HD31" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="HG31" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="HG31" s="2"/>
       <c r="HH31" s="2" t="s">
         <v>703</v>
       </c>
@@ -29522,9 +31549,7 @@
       <c r="O32" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="DA32" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="DA32" s="2"/>
       <c r="EG32" s="2" t="s">
         <v>712</v>
       </c>
@@ -29595,9 +31620,7 @@
       <c r="FS34" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="GS34" s="2" t="s">
-        <v>616</v>
-      </c>
+      <c r="GS34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -29629,13 +31652,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:HO22"/>
+  <dimension ref="A1:HO21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="FX41" activeCellId="0" sqref="FX41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="GC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="GC5" activeCellId="0" sqref="GC5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="223" min="1" style="0" width="11.72"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -29645,7 +31671,6 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>34</v>
@@ -29679,127 +31704,148 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="n">
+        <f aca="false">AVERAGE(B9:AE9)</f>
         <v>0.911111111111111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="n">
+        <f aca="false">AVERAGE(B10:AE10)</f>
         <v>0.911111111111111</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="2" t="n">
+        <f aca="false">AVERAGE(B11:AE11)</f>
         <v>0.911111111111111</v>
       </c>
       <c r="AG5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="AH5" s="2" t="n">
+        <f aca="false">AVERAGE(AH9:BK9)</f>
         <v>0.872222222222222</v>
       </c>
       <c r="AI5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="AJ5" s="2" t="n">
-        <v>0.833333333333333</v>
+        <f aca="false">AVERAGE(AH10:BK10)</f>
+        <v>0.833333333333334</v>
       </c>
       <c r="AK5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AL5" s="2" t="n">
+        <f aca="false">AVERAGE(AH11:BK11)</f>
         <v>0.848888888888889</v>
       </c>
       <c r="BM5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="BN5" s="2" t="n">
+        <f aca="false">AVERAGE(BN9:CQ9)</f>
         <v>0.877777777777778</v>
       </c>
       <c r="BO5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="BP5" s="2" t="n">
+        <f aca="false">AVERAGE(BN10:CQ10)</f>
         <v>0.877777777777778</v>
       </c>
       <c r="BQ5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="BR5" s="2" t="n">
+        <f aca="false">AVERAGE(BN11:CQ11)</f>
         <v>0.877777777777778</v>
       </c>
       <c r="CS5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="CT5" s="2" t="n">
+        <f aca="false">AVERAGE(CT9:DW9)</f>
         <v>0.905555555555556</v>
       </c>
       <c r="CU5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="CV5" s="2" t="n">
+        <f aca="false">AVERAGE(CT10:DW10)</f>
         <v>0.888888888888889</v>
       </c>
       <c r="CW5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="CX5" s="2" t="n">
-        <v>0.895555555555555</v>
+        <f aca="false">AVERAGE(CT11:DW11)</f>
+        <v>0.895555555555556</v>
       </c>
       <c r="DY5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="DZ5" s="2" t="n">
+        <f aca="false">AVERAGE(DZ9:FC9)</f>
         <v>0.861111111111111</v>
       </c>
       <c r="EA5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="EB5" s="2" t="n">
-        <v>0.844444444444444</v>
+        <f aca="false">AVERAGE(DZ10:FC10)</f>
+        <v>0.844444444444445</v>
       </c>
       <c r="EC5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="ED5" s="2" t="n">
+        <f aca="false">AVERAGE(DZ11:FC11)</f>
         <v>0.851111111111111</v>
       </c>
       <c r="FE5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="FF5" s="2" t="n">
+        <f aca="false">AVERAGE(FF9:GI9)</f>
         <v>0.872222222222222</v>
       </c>
       <c r="FG5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="FH5" s="2" t="n">
+        <f aca="false">AVERAGE(FF10:GI10)</f>
         <v>0.866666666666667</v>
       </c>
       <c r="FI5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="FJ5" s="2" t="n">
+        <f aca="false">AVERAGE(FF11:GI11)</f>
         <v>0.868888888888889</v>
       </c>
       <c r="GK5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="GL5" s="2" t="n">
-        <v>0.833333333333333</v>
+        <f aca="false">AVERAGE(GL9:HO9)</f>
+        <v>0.833333333333334</v>
       </c>
       <c r="GM5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="GN5" s="2" t="n">
-        <v>0.833333333333333</v>
+        <f aca="false">AVERAGE(GL10:HO10)</f>
+        <v>0.833333333333334</v>
       </c>
       <c r="GO5" s="2" t="s">
         <v>44</v>
       </c>
       <c r="GP5" s="2" t="n">
-        <v>0.833333333333333</v>
+        <f aca="false">AVERAGE(GL11:HO11)</f>
+        <v>0.833333333333334</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29807,46 +31853,52 @@
         <v>45</v>
       </c>
       <c r="B6" s="2" t="n">
+        <f aca="false">SUM(B17:AE17)</f>
         <v>8</v>
       </c>
       <c r="AG6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="AH6" s="2" t="n">
+        <f aca="false">SUM(AH17:BK17)</f>
         <v>11</v>
       </c>
       <c r="BM6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="BN6" s="2" t="n">
+        <f aca="false">SUM(BN17:CQ17)</f>
         <v>11</v>
       </c>
       <c r="CS6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="CT6" s="2" t="n">
+        <f aca="false">SUM(CT17:DW17)</f>
         <v>8</v>
       </c>
       <c r="DY6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="DZ6" s="2" t="n">
+        <f aca="false">SUM(DZ17:FC17)</f>
         <v>12</v>
       </c>
       <c r="FE6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="FF6" s="2" t="n">
+        <f aca="false">SUM(FF17:GI17)</f>
         <v>11</v>
       </c>
       <c r="GK6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="GL6" s="2" t="n">
+        <f aca="false">SUM(GL17:HO17)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="2" t="s">
         <v>46</v>
@@ -34355,8 +36407,6 @@
         <v>795</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>315</v>
@@ -35268,7 +37318,10 @@
       <selection pane="topLeft" activeCell="GK3" activeCellId="0" sqref="GK3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="223" min="1" style="0" width="11.64"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -47646,13 +49699,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:HO25"/>
+  <dimension ref="A1:HO24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="GF1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="GK3" activeCellId="0" sqref="GK3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="223" min="1" style="0" width="11.64"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -56162,7 +58218,10 @@
       <selection pane="topLeft" activeCell="GK3" activeCellId="0" sqref="GK3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="223" min="1" style="0" width="11.64"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -68542,11 +70601,14 @@
   </sheetPr>
   <dimension ref="A1:HO23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="HQ13" activeCellId="0" sqref="HQ13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="DX1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="HS13" activeCellId="0" sqref="HS13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="223" min="1" style="0" width="11.64"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
